--- a/results/results_tool_08.09.xlsx
+++ b/results/results_tool_08.09.xlsx
@@ -1063,52 +1063,19 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,43 +1087,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,7 +1099,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,34 +1159,55 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CQ32" sqref="CQ32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,220 +1617,220 @@
       <c r="F2" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="101"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="98"/>
       <c r="V2" s="67"/>
-      <c r="W2" s="96" t="s">
+      <c r="W2" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="111" t="s">
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="97"/>
-      <c r="BA2" s="97"/>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97" t="s">
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="BD2" s="97"/>
-      <c r="BE2" s="97"/>
-      <c r="BF2" s="97"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="97"/>
-      <c r="BK2" s="97"/>
-      <c r="BL2" s="97"/>
-      <c r="BM2" s="97"/>
-      <c r="BN2" s="97"/>
-      <c r="BO2" s="97"/>
-      <c r="BP2" s="97"/>
-      <c r="BQ2" s="97"/>
-      <c r="BR2" s="97"/>
-      <c r="BS2" s="97" t="s">
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="96"/>
+      <c r="BJ2" s="96"/>
+      <c r="BK2" s="96"/>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="96"/>
+      <c r="BN2" s="96"/>
+      <c r="BO2" s="96"/>
+      <c r="BP2" s="96"/>
+      <c r="BQ2" s="96"/>
+      <c r="BR2" s="96"/>
+      <c r="BS2" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="BT2" s="97"/>
-      <c r="BU2" s="97"/>
-      <c r="BV2" s="97"/>
-      <c r="BW2" s="97"/>
-      <c r="BX2" s="97"/>
-      <c r="BY2" s="97"/>
-      <c r="BZ2" s="97"/>
-      <c r="CA2" s="97"/>
-      <c r="CB2" s="97"/>
-      <c r="CC2" s="97"/>
-      <c r="CD2" s="97"/>
-      <c r="CE2" s="97"/>
-      <c r="CF2" s="97"/>
-      <c r="CG2" s="97"/>
-      <c r="CH2" s="97"/>
+      <c r="BT2" s="96"/>
+      <c r="BU2" s="96"/>
+      <c r="BV2" s="96"/>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="96"/>
+      <c r="BY2" s="96"/>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="96"/>
+      <c r="CC2" s="96"/>
+      <c r="CD2" s="96"/>
+      <c r="CE2" s="96"/>
+      <c r="CF2" s="96"/>
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="96"/>
       <c r="CI2" s="53"/>
     </row>
     <row r="3" spans="1:88" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F3" s="47"/>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="101" t="s">
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="102" t="s">
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
       <c r="R3" s="70"/>
-      <c r="S3" s="107" t="s">
+      <c r="S3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="124" t="s">
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="118" t="s">
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="121" t="s">
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="116" t="s">
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="133"/>
+      <c r="AI3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="127" t="s">
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="101" t="s">
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="112" t="s">
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="99"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="107" t="s">
+      <c r="AV3" s="102"/>
+      <c r="AW3" s="102"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="128" t="s">
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="105"/>
+      <c r="BC3" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="129"/>
-      <c r="BG3" s="101" t="s">
+      <c r="BD3" s="106"/>
+      <c r="BE3" s="106"/>
+      <c r="BF3" s="107"/>
+      <c r="BG3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="BH3" s="106"/>
-      <c r="BI3" s="106"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="112" t="s">
+      <c r="BH3" s="99"/>
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="100"/>
+      <c r="BK3" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="BL3" s="113"/>
-      <c r="BM3" s="113"/>
-      <c r="BN3" s="114"/>
-      <c r="BO3" s="107" t="s">
+      <c r="BL3" s="102"/>
+      <c r="BM3" s="102"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="BP3" s="108"/>
-      <c r="BQ3" s="108"/>
-      <c r="BR3" s="108"/>
-      <c r="BS3" s="128" t="s">
+      <c r="BP3" s="105"/>
+      <c r="BQ3" s="105"/>
+      <c r="BR3" s="105"/>
+      <c r="BS3" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="BT3" s="128"/>
-      <c r="BU3" s="128"/>
-      <c r="BV3" s="129"/>
-      <c r="BW3" s="101" t="s">
+      <c r="BT3" s="106"/>
+      <c r="BU3" s="106"/>
+      <c r="BV3" s="107"/>
+      <c r="BW3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="BX3" s="106"/>
-      <c r="BY3" s="106"/>
-      <c r="BZ3" s="99"/>
-      <c r="CA3" s="112" t="s">
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="100"/>
+      <c r="CA3" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="CB3" s="113"/>
-      <c r="CC3" s="113"/>
-      <c r="CD3" s="114"/>
-      <c r="CE3" s="107" t="s">
+      <c r="CB3" s="102"/>
+      <c r="CC3" s="102"/>
+      <c r="CD3" s="103"/>
+      <c r="CE3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="CF3" s="108"/>
-      <c r="CG3" s="108"/>
-      <c r="CH3" s="115"/>
+      <c r="CF3" s="105"/>
+      <c r="CG3" s="105"/>
+      <c r="CH3" s="140"/>
       <c r="CI3" s="53"/>
     </row>
     <row r="4" spans="1:88" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -8697,225 +8697,302 @@
       <c r="C26" s="84">
         <v>735</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="86"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="86"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="86"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="90"/>
-      <c r="AM26" s="87" t="e">
+      <c r="D26" s="84">
+        <v>2397</v>
+      </c>
+      <c r="E26" s="85">
+        <v>554</v>
+      </c>
+      <c r="F26" s="89">
+        <v>135</v>
+      </c>
+      <c r="G26" s="87">
+        <v>253</v>
+      </c>
+      <c r="H26" s="84">
+        <v>55</v>
+      </c>
+      <c r="I26" s="87">
+        <v>15</v>
+      </c>
+      <c r="J26" s="86">
+        <v>7</v>
+      </c>
+      <c r="K26" s="84">
+        <v>780</v>
+      </c>
+      <c r="L26" s="84">
+        <v>350</v>
+      </c>
+      <c r="M26" s="87">
+        <v>148</v>
+      </c>
+      <c r="N26" s="86">
+        <v>74</v>
+      </c>
+      <c r="O26" s="84">
+        <v>2068</v>
+      </c>
+      <c r="P26" s="84">
+        <v>1029</v>
+      </c>
+      <c r="Q26" s="87">
+        <v>395</v>
+      </c>
+      <c r="R26" s="86">
+        <v>211</v>
+      </c>
+      <c r="S26" s="84">
+        <v>12832</v>
+      </c>
+      <c r="T26" s="87">
+        <v>10522</v>
+      </c>
+      <c r="U26" s="87">
+        <v>4765</v>
+      </c>
+      <c r="V26" s="87">
+        <v>2576</v>
+      </c>
+      <c r="W26" s="88">
+        <v>0</v>
+      </c>
+      <c r="X26" s="87">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="87">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="87">
+        <v>11</v>
+      </c>
+      <c r="AB26" s="87">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="87">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="86">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="87">
+        <v>42</v>
+      </c>
+      <c r="AF26" s="87">
+        <v>21</v>
+      </c>
+      <c r="AG26" s="87">
+        <v>12</v>
+      </c>
+      <c r="AH26" s="86">
+        <v>7</v>
+      </c>
+      <c r="AI26" s="87">
+        <v>66</v>
+      </c>
+      <c r="AJ26" s="87">
+        <v>61</v>
+      </c>
+      <c r="AK26" s="87">
+        <v>48</v>
+      </c>
+      <c r="AL26" s="90">
+        <v>21</v>
+      </c>
+      <c r="AM26" s="87">
         <f t="shared" ref="AM26:AM27" si="144">(W26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN26" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="84">
         <f t="shared" ref="AN26:AN27" si="145">(X26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO26" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="87">
         <f t="shared" ref="AO26:AO27" si="146">(Y26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP26" s="90" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="90">
         <f t="shared" ref="AP26:AP27" si="147">(Z26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ26" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="84">
         <f t="shared" ref="AQ26:AQ27" si="148">(AA26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR26" s="84" t="e">
+        <v>8.1481481481481488</v>
+      </c>
+      <c r="AR26" s="84">
         <f t="shared" ref="AR26:AR27" si="149">(AB26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS26" s="87" t="e">
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="AS26" s="87">
         <f t="shared" ref="AS26:AS27" si="150">(AC26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT26" s="90" t="e">
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AT26" s="90">
         <f t="shared" ref="AT26:AT27" si="151">(AD26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU26" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="84">
         <f t="shared" ref="AU26:AU27" si="152">(AE26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV26" s="84" t="e">
+        <v>31.111111111111111</v>
+      </c>
+      <c r="AV26" s="84">
         <f t="shared" ref="AV26:AV27" si="153">(AF26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW26" s="87" t="e">
+        <v>15.555555555555555</v>
+      </c>
+      <c r="AW26" s="87">
         <f t="shared" ref="AW26:AW27" si="154">(AG26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX26" s="90" t="e">
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="AX26" s="90">
         <f t="shared" ref="AX26:AX27" si="155">(AH26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY26" s="84" t="e">
+        <v>5.1851851851851851</v>
+      </c>
+      <c r="AY26" s="84">
         <f t="shared" ref="AY26:AY27" si="156">(AI26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ26" s="84" t="e">
+        <v>48.888888888888886</v>
+      </c>
+      <c r="AZ26" s="84">
         <f t="shared" ref="AZ26:AZ27" si="157">(AJ26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA26" s="87" t="e">
+        <v>45.185185185185183</v>
+      </c>
+      <c r="BA26" s="87">
         <f t="shared" ref="BA26:BA27" si="158">(AK26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB26" s="90" t="e">
+        <v>35.555555555555557</v>
+      </c>
+      <c r="BB26" s="90">
         <f t="shared" ref="BB26:BB27" si="159">(AL26*100)/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC26" s="87" t="e">
+        <v>15.555555555555555</v>
+      </c>
+      <c r="BC26" s="87">
         <f t="shared" ref="BC26:BC27" si="160">(W26*100)/G26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD26" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="87">
         <f t="shared" ref="BD26:BD27" si="161">(X26*100)/H26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE26" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="87">
         <f t="shared" ref="BE26:BE27" si="162">(Y26*100)/I26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BF26" s="90" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="90">
         <f t="shared" ref="BF26:BF27" si="163">(Z26*100)/J26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG26" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="87">
         <f t="shared" ref="BG26:BG27" si="164">(AA26*100)/K26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH26" s="87" t="e">
+        <v>1.4102564102564104</v>
+      </c>
+      <c r="BH26" s="87">
         <f t="shared" ref="BH26:BH27" si="165">(AB26*100)/L26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI26" s="87" t="e">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="BI26" s="87">
         <f t="shared" ref="BI26:BI27" si="166">(AC26*100)/M26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ26" s="90" t="e">
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="BJ26" s="90">
         <f t="shared" ref="BJ26:BJ27" si="167">(AD26*100)/N26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK26" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="87">
         <f t="shared" ref="BK26:BK27" si="168">(AE26*100)/O26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL26" s="87" t="e">
+        <v>2.0309477756286265</v>
+      </c>
+      <c r="BL26" s="87">
         <f t="shared" ref="BL26:BL27" si="169">(AF26*100)/P26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BM26" s="87" t="e">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="BM26" s="87">
         <f t="shared" ref="BM26:BM27" si="170">(AG26*100)/Q26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN26" s="90" t="e">
+        <v>3.037974683544304</v>
+      </c>
+      <c r="BN26" s="90">
         <f t="shared" ref="BN26:BN27" si="171">(AH26*100)/R26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO26" s="87" t="e">
+        <v>3.3175355450236967</v>
+      </c>
+      <c r="BO26" s="87">
         <f t="shared" ref="BO26:BO27" si="172">(AI26*100)/S26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP26" s="87" t="e">
+        <v>0.51433915211970072</v>
+      </c>
+      <c r="BP26" s="87">
         <f t="shared" ref="BP26:BP27" si="173">(AJ26*100)/T26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ26" s="87" t="e">
+        <v>0.57973769245390605</v>
+      </c>
+      <c r="BQ26" s="87">
         <f t="shared" ref="BQ26:BQ27" si="174">(AK26*100)/U26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BR26" s="90" t="e">
+        <v>1.0073452256033577</v>
+      </c>
+      <c r="BR26" s="90">
         <f t="shared" ref="BR26:BR27" si="175">(AL26*100)/V26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BS26" s="87" t="e">
+        <v>0.81521739130434778</v>
+      </c>
+      <c r="BS26" s="87">
         <f t="shared" ref="BS26:BS27" si="176">G26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BT26" s="87" t="e">
+        <v>1.874074074074074</v>
+      </c>
+      <c r="BT26" s="87">
         <f t="shared" ref="BT26:BT27" si="177">H26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BU26" s="87" t="e">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="BU26" s="87">
         <f t="shared" ref="BU26:BU27" si="178">I26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BV26" s="90" t="e">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BV26" s="90">
         <f t="shared" ref="BV26:BV27" si="179">J26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BW26" s="87" t="e">
+        <v>5.185185185185185E-2</v>
+      </c>
+      <c r="BW26" s="87">
         <f t="shared" ref="BW26:BW27" si="180">K26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BX26" s="87" t="e">
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="BX26" s="87">
         <f t="shared" ref="BX26:BX27" si="181">L26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BY26" s="87" t="e">
+        <v>2.5925925925925926</v>
+      </c>
+      <c r="BY26" s="87">
         <f t="shared" ref="BY26:BY27" si="182">M26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BZ26" s="90" t="e">
+        <v>1.0962962962962963</v>
+      </c>
+      <c r="BZ26" s="90">
         <f t="shared" ref="BZ26:BZ27" si="183">N26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CA26" s="87" t="e">
+        <v>0.54814814814814816</v>
+      </c>
+      <c r="CA26" s="87">
         <f t="shared" ref="CA26:CA27" si="184">O26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB26" s="87" t="e">
+        <v>15.318518518518518</v>
+      </c>
+      <c r="CB26" s="87">
         <f t="shared" ref="CB26:CB27" si="185">P26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CC26" s="87" t="e">
+        <v>7.6222222222222218</v>
+      </c>
+      <c r="CC26" s="87">
         <f t="shared" ref="CC26:CC27" si="186">Q26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CD26" s="90" t="e">
+        <v>2.925925925925926</v>
+      </c>
+      <c r="CD26" s="90">
         <f t="shared" ref="CD26:CD27" si="187">R26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CE26" s="87" t="e">
+        <v>1.5629629629629629</v>
+      </c>
+      <c r="CE26" s="87">
         <f t="shared" ref="CE26:CE27" si="188">S26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CF26" s="87" t="e">
+        <v>95.05185185185185</v>
+      </c>
+      <c r="CF26" s="87">
         <f t="shared" ref="CF26:CF27" si="189">T26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CG26" s="87" t="e">
+        <v>77.940740740740736</v>
+      </c>
+      <c r="CG26" s="87">
         <f t="shared" ref="CG26:CG27" si="190">U26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH26" s="90" t="e">
+        <v>35.296296296296298</v>
+      </c>
+      <c r="CH26" s="90">
         <f t="shared" ref="CH26:CH27" si="191">V26/F26</f>
-        <v>#DIV/0!</v>
+        <v>19.081481481481482</v>
       </c>
       <c r="CI26" s="5" t="s">
         <v>114</v>
@@ -11244,96 +11321,96 @@
       <c r="F38" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="101"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="137"/>
+      <c r="P38" s="137"/>
+      <c r="Q38" s="137"/>
+      <c r="R38" s="137"/>
+      <c r="S38" s="137"/>
+      <c r="T38" s="137"/>
+      <c r="U38" s="98"/>
       <c r="V38" s="67"/>
-      <c r="W38" s="101" t="s">
+      <c r="W38" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="X38" s="106"/>
-      <c r="Y38" s="106"/>
-      <c r="Z38" s="106"/>
-      <c r="AA38" s="106"/>
-      <c r="AB38" s="106"/>
-      <c r="AC38" s="106"/>
-      <c r="AD38" s="106"/>
-      <c r="AE38" s="106"/>
-      <c r="AF38" s="106"/>
-      <c r="AG38" s="106"/>
-      <c r="AH38" s="106"/>
-      <c r="AI38" s="106"/>
-      <c r="AJ38" s="106"/>
-      <c r="AK38" s="106"/>
-      <c r="AL38" s="99"/>
-      <c r="AM38" s="110" t="s">
+      <c r="X38" s="99"/>
+      <c r="Y38" s="99"/>
+      <c r="Z38" s="99"/>
+      <c r="AA38" s="99"/>
+      <c r="AB38" s="99"/>
+      <c r="AC38" s="99"/>
+      <c r="AD38" s="99"/>
+      <c r="AE38" s="99"/>
+      <c r="AF38" s="99"/>
+      <c r="AG38" s="99"/>
+      <c r="AH38" s="99"/>
+      <c r="AI38" s="99"/>
+      <c r="AJ38" s="99"/>
+      <c r="AK38" s="99"/>
+      <c r="AL38" s="100"/>
+      <c r="AM38" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="AN38" s="97"/>
-      <c r="AO38" s="97"/>
-      <c r="AP38" s="97"/>
-      <c r="AQ38" s="97"/>
-      <c r="AR38" s="97"/>
-      <c r="AS38" s="97"/>
-      <c r="AT38" s="97"/>
-      <c r="AU38" s="97"/>
-      <c r="AV38" s="97"/>
-      <c r="AW38" s="97"/>
-      <c r="AX38" s="97"/>
-      <c r="AY38" s="97"/>
-      <c r="AZ38" s="97"/>
-      <c r="BA38" s="97"/>
-      <c r="BB38" s="98"/>
-      <c r="BC38" s="111" t="s">
+      <c r="AN38" s="96"/>
+      <c r="AO38" s="96"/>
+      <c r="AP38" s="96"/>
+      <c r="AQ38" s="96"/>
+      <c r="AR38" s="96"/>
+      <c r="AS38" s="96"/>
+      <c r="AT38" s="96"/>
+      <c r="AU38" s="96"/>
+      <c r="AV38" s="96"/>
+      <c r="AW38" s="96"/>
+      <c r="AX38" s="96"/>
+      <c r="AY38" s="96"/>
+      <c r="AZ38" s="96"/>
+      <c r="BA38" s="96"/>
+      <c r="BB38" s="139"/>
+      <c r="BC38" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="BD38" s="97"/>
-      <c r="BE38" s="97"/>
-      <c r="BF38" s="97"/>
-      <c r="BG38" s="97"/>
-      <c r="BH38" s="97"/>
-      <c r="BI38" s="97"/>
-      <c r="BJ38" s="97"/>
-      <c r="BK38" s="97"/>
-      <c r="BL38" s="97"/>
-      <c r="BM38" s="97"/>
-      <c r="BN38" s="97"/>
-      <c r="BO38" s="97"/>
-      <c r="BP38" s="97"/>
-      <c r="BQ38" s="97"/>
-      <c r="BR38" s="98"/>
-      <c r="BS38" s="111" t="s">
+      <c r="BD38" s="96"/>
+      <c r="BE38" s="96"/>
+      <c r="BF38" s="96"/>
+      <c r="BG38" s="96"/>
+      <c r="BH38" s="96"/>
+      <c r="BI38" s="96"/>
+      <c r="BJ38" s="96"/>
+      <c r="BK38" s="96"/>
+      <c r="BL38" s="96"/>
+      <c r="BM38" s="96"/>
+      <c r="BN38" s="96"/>
+      <c r="BO38" s="96"/>
+      <c r="BP38" s="96"/>
+      <c r="BQ38" s="96"/>
+      <c r="BR38" s="139"/>
+      <c r="BS38" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="BT38" s="97"/>
-      <c r="BU38" s="97"/>
-      <c r="BV38" s="97"/>
-      <c r="BW38" s="97"/>
-      <c r="BX38" s="97"/>
-      <c r="BY38" s="97"/>
-      <c r="BZ38" s="97"/>
-      <c r="CA38" s="97"/>
-      <c r="CB38" s="97"/>
-      <c r="CC38" s="97"/>
-      <c r="CD38" s="97"/>
-      <c r="CE38" s="97"/>
-      <c r="CF38" s="97"/>
-      <c r="CG38" s="97"/>
-      <c r="CH38" s="98"/>
+      <c r="BT38" s="96"/>
+      <c r="BU38" s="96"/>
+      <c r="BV38" s="96"/>
+      <c r="BW38" s="96"/>
+      <c r="BX38" s="96"/>
+      <c r="BY38" s="96"/>
+      <c r="BZ38" s="96"/>
+      <c r="CA38" s="96"/>
+      <c r="CB38" s="96"/>
+      <c r="CC38" s="96"/>
+      <c r="CD38" s="96"/>
+      <c r="CE38" s="96"/>
+      <c r="CF38" s="96"/>
+      <c r="CG38" s="96"/>
+      <c r="CH38" s="139"/>
       <c r="CI38" s="53"/>
       <c r="CJ38" s="33"/>
     </row>
@@ -11344,126 +11421,126 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="47"/>
-      <c r="G39" s="134" t="s">
+      <c r="G39" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="101" t="s">
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="112" t="s">
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="107" t="s">
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="109"/>
-      <c r="W39" s="124" t="s">
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="128"/>
+      <c r="W39" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="X39" s="125"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="126"/>
-      <c r="AA39" s="118" t="s">
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="AB39" s="119"/>
-      <c r="AC39" s="119"/>
-      <c r="AD39" s="120"/>
-      <c r="AE39" s="121" t="s">
+      <c r="AB39" s="112"/>
+      <c r="AC39" s="112"/>
+      <c r="AD39" s="132"/>
+      <c r="AE39" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="122"/>
-      <c r="AH39" s="123"/>
-      <c r="AI39" s="116" t="s">
+      <c r="AF39" s="115"/>
+      <c r="AG39" s="115"/>
+      <c r="AH39" s="133"/>
+      <c r="AI39" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AJ39" s="117"/>
-      <c r="AK39" s="117"/>
-      <c r="AL39" s="135"/>
-      <c r="AM39" s="130" t="s">
+      <c r="AJ39" s="135"/>
+      <c r="AK39" s="135"/>
+      <c r="AL39" s="136"/>
+      <c r="AM39" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="AN39" s="104"/>
-      <c r="AO39" s="104"/>
-      <c r="AP39" s="105"/>
-      <c r="AQ39" s="131" t="s">
+      <c r="AN39" s="122"/>
+      <c r="AO39" s="122"/>
+      <c r="AP39" s="123"/>
+      <c r="AQ39" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="AR39" s="132"/>
-      <c r="AS39" s="132"/>
-      <c r="AT39" s="133"/>
-      <c r="AU39" s="121" t="s">
+      <c r="AR39" s="125"/>
+      <c r="AS39" s="125"/>
+      <c r="AT39" s="126"/>
+      <c r="AU39" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="AV39" s="122"/>
-      <c r="AW39" s="122"/>
-      <c r="AX39" s="137"/>
-      <c r="AY39" s="142" t="s">
+      <c r="AV39" s="115"/>
+      <c r="AW39" s="115"/>
+      <c r="AX39" s="116"/>
+      <c r="AY39" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="AZ39" s="143"/>
-      <c r="BA39" s="143"/>
-      <c r="BB39" s="144"/>
-      <c r="BC39" s="140" t="s">
+      <c r="AZ39" s="118"/>
+      <c r="BA39" s="118"/>
+      <c r="BB39" s="119"/>
+      <c r="BC39" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="BD39" s="125"/>
-      <c r="BE39" s="125"/>
-      <c r="BF39" s="141"/>
-      <c r="BG39" s="138" t="s">
+      <c r="BD39" s="109"/>
+      <c r="BE39" s="109"/>
+      <c r="BF39" s="110"/>
+      <c r="BG39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="BH39" s="119"/>
-      <c r="BI39" s="119"/>
-      <c r="BJ39" s="139"/>
-      <c r="BK39" s="136" t="s">
+      <c r="BH39" s="112"/>
+      <c r="BI39" s="112"/>
+      <c r="BJ39" s="113"/>
+      <c r="BK39" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="BL39" s="122"/>
-      <c r="BM39" s="122"/>
-      <c r="BN39" s="137"/>
-      <c r="BO39" s="142" t="s">
+      <c r="BL39" s="115"/>
+      <c r="BM39" s="115"/>
+      <c r="BN39" s="116"/>
+      <c r="BO39" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BP39" s="143"/>
-      <c r="BQ39" s="143"/>
-      <c r="BR39" s="144"/>
-      <c r="BS39" s="140" t="s">
+      <c r="BP39" s="118"/>
+      <c r="BQ39" s="118"/>
+      <c r="BR39" s="119"/>
+      <c r="BS39" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="BT39" s="125"/>
-      <c r="BU39" s="125"/>
-      <c r="BV39" s="141"/>
-      <c r="BW39" s="138" t="s">
+      <c r="BT39" s="109"/>
+      <c r="BU39" s="109"/>
+      <c r="BV39" s="110"/>
+      <c r="BW39" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="BX39" s="119"/>
-      <c r="BY39" s="119"/>
-      <c r="BZ39" s="139"/>
-      <c r="CA39" s="136" t="s">
+      <c r="BX39" s="112"/>
+      <c r="BY39" s="112"/>
+      <c r="BZ39" s="113"/>
+      <c r="CA39" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="CB39" s="122"/>
-      <c r="CC39" s="122"/>
-      <c r="CD39" s="137"/>
-      <c r="CE39" s="142" t="s">
+      <c r="CB39" s="115"/>
+      <c r="CC39" s="115"/>
+      <c r="CD39" s="116"/>
+      <c r="CE39" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="CF39" s="143"/>
-      <c r="CG39" s="143"/>
-      <c r="CH39" s="144"/>
+      <c r="CF39" s="118"/>
+      <c r="CG39" s="118"/>
+      <c r="CH39" s="119"/>
       <c r="CI39" s="53"/>
       <c r="CJ39" s="33"/>
     </row>
@@ -19561,195 +19638,195 @@
       <c r="AK68" s="87"/>
       <c r="AL68" s="90"/>
       <c r="AM68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AM41:AM67)/17</f>
+        <f t="shared" ref="AM68:CH68" si="340" xml:space="preserve"> SUM(AM41:AM67)/17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AN41:AN67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AO41:AO67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP68" s="72" t="e">
-        <f xml:space="preserve"> SUM(AP41:AP67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AQ41:AQ67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AR41:AR67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AS41:AS67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT68" s="72" t="e">
-        <f xml:space="preserve"> SUM(AT41:AT67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AU41:AU67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AV41:AV67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AW41:AW67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX68" s="72" t="e">
-        <f xml:space="preserve"> SUM(AX41:AX67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AY41:AY67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ68" s="65" t="e">
-        <f xml:space="preserve"> SUM(AZ41:AZ67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BA41:BA67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB68" s="72" t="e">
-        <f xml:space="preserve"> SUM(BB41:BB67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BC41:BC67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BD41:BD67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BE41:BE67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF68" s="72" t="e">
-        <f xml:space="preserve"> SUM(BF41:BF67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BG41:BG67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BH41:BH67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BI41:BI67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ68" s="72" t="e">
-        <f xml:space="preserve"> SUM(BJ41:BJ67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BK41:BK67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BL41:BL67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BM41:BM67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN68" s="72" t="e">
-        <f xml:space="preserve"> SUM(BN41:BN67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BO41:BO67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BP41:BP67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BQ41:BQ67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BR68" s="72" t="e">
-        <f xml:space="preserve"> SUM(BR41:BR67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BS41:BS67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BT41:BT67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BU41:BU67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BV68" s="72" t="e">
-        <f xml:space="preserve"> SUM(BV41:BV67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BW41:BW67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BX68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BX41:BX67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY68" s="65" t="e">
-        <f xml:space="preserve"> SUM(BY41:BY67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ68" s="72" t="e">
-        <f xml:space="preserve"> SUM(BZ41:BZ67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA68" s="65" t="e">
-        <f xml:space="preserve"> SUM(CA41:CA67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CB68" s="65" t="e">
-        <f xml:space="preserve"> SUM(CB41:CB67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC68" s="65" t="e">
-        <f xml:space="preserve"> SUM(CC41:CC67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CD68" s="72" t="e">
-        <f xml:space="preserve"> SUM(CD41:CD67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE68" s="65" t="e">
-        <f xml:space="preserve"> SUM(CE41:CE67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF68" s="65" t="e">
-        <f xml:space="preserve"> SUM(CF41:CF67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG68" s="65" t="e">
-        <f xml:space="preserve"> SUM(CG41:CG67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH68" s="72" t="e">
-        <f xml:space="preserve"> SUM(CH41:CH67)/17</f>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI68" s="66"/>
@@ -19769,195 +19846,195 @@
       </c>
       <c r="AL69" s="72"/>
       <c r="AM69" s="65" t="e">
-        <f>(SUM(AM41:AM67)-MIN(AM41:AM67)-MAX(AM41:AM67))/17</f>
+        <f t="shared" ref="AM69:CH69" si="341">(SUM(AM41:AM67)-MIN(AM41:AM67)-MAX(AM41:AM67))/17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN69" s="65" t="e">
-        <f>(SUM(AN41:AN67)-MIN(AN41:AN67)-MAX(AN41:AN67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO69" s="65" t="e">
-        <f>(SUM(AO41:AO67)-MIN(AO41:AO67)-MAX(AO41:AO67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP69" s="72" t="e">
-        <f>(SUM(AP41:AP67)-MIN(AP41:AP67)-MAX(AP41:AP67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ69" s="65" t="e">
-        <f>(SUM(AQ41:AQ67)-MIN(AQ41:AQ67)-MAX(AQ41:AQ67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR69" s="65" t="e">
-        <f>(SUM(AR41:AR67)-MIN(AR41:AR67)-MAX(AR41:AR67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS69" s="65" t="e">
-        <f>(SUM(AS41:AS67)-MIN(AS41:AS67)-MAX(AS41:AS67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT69" s="72" t="e">
-        <f>(SUM(AT41:AT67)-MIN(AT41:AT67)-MAX(AT41:AT67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU69" s="65" t="e">
-        <f>(SUM(AU41:AU67)-MIN(AU41:AU67)-MAX(AU41:AU67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV69" s="65" t="e">
-        <f>(SUM(AV41:AV67)-MIN(AV41:AV67)-MAX(AV41:AV67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW69" s="65" t="e">
-        <f>(SUM(AW41:AW67)-MIN(AW41:AW67)-MAX(AW41:AW67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX69" s="72" t="e">
-        <f>(SUM(AX41:AX67)-MIN(AX41:AX67)-MAX(AX41:AX67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY69" s="65" t="e">
-        <f>(SUM(AY41:AY67)-MIN(AY41:AY67)-MAX(AY41:AY67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ69" s="65" t="e">
-        <f>(SUM(AZ41:AZ67)-MIN(AZ41:AZ67)-MAX(AZ41:AZ67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA69" s="65" t="e">
-        <f>(SUM(BA41:BA67)-MIN(BA41:BA67)-MAX(BA41:BA67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB69" s="72" t="e">
-        <f>(SUM(BB41:BB67)-MIN(BB41:BB67)-MAX(BB41:BB67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC69" s="65" t="e">
-        <f>(SUM(BC41:BC67)-MIN(BC41:BC67)-MAX(BC41:BC67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD69" s="65" t="e">
-        <f>(SUM(BD41:BD67)-MIN(BD41:BD67)-MAX(BD41:BD67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE69" s="65" t="e">
-        <f>(SUM(BE41:BE67)-MIN(BE41:BE67)-MAX(BE41:BE67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF69" s="72" t="e">
-        <f>(SUM(BF41:BF67)-MIN(BF41:BF67)-MAX(BF41:BF67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG69" s="65" t="e">
-        <f>(SUM(BG41:BG67)-MIN(BG41:BG67)-MAX(BG41:BG67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH69" s="65" t="e">
-        <f>(SUM(BH41:BH67)-MIN(BH41:BH67)-MAX(BH41:BH67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI69" s="65" t="e">
-        <f>(SUM(BI41:BI67)-MIN(BI41:BI67)-MAX(BI41:BI67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ69" s="72" t="e">
-        <f>(SUM(BJ41:BJ67)-MIN(BJ41:BJ67)-MAX(BJ41:BJ67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK69" s="65" t="e">
-        <f>(SUM(BK41:BK67)-MIN(BK41:BK67)-MAX(BK41:BK67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL69" s="65" t="e">
-        <f>(SUM(BL41:BL67)-MIN(BL41:BL67)-MAX(BL41:BL67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM69" s="65" t="e">
-        <f>(SUM(BM41:BM67)-MIN(BM41:BM67)-MAX(BM41:BM67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN69" s="72" t="e">
-        <f>(SUM(BN41:BN67)-MIN(BN41:BN67)-MAX(BN41:BN67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO69" s="65" t="e">
-        <f>(SUM(BO41:BO67)-MIN(BO41:BO67)-MAX(BO41:BO67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP69" s="65" t="e">
-        <f>(SUM(BP41:BP67)-MIN(BP41:BP67)-MAX(BP41:BP67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ69" s="65" t="e">
-        <f>(SUM(BQ41:BQ67)-MIN(BQ41:BQ67)-MAX(BQ41:BQ67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BR69" s="72" t="e">
-        <f>(SUM(BR41:BR67)-MIN(BR41:BR67)-MAX(BR41:BR67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS69" s="65" t="e">
-        <f>(SUM(BS41:BS67)-MIN(BS41:BS67)-MAX(BS41:BS67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT69" s="65" t="e">
-        <f>(SUM(BT41:BT67)-MIN(BT41:BT67)-MAX(BT41:BT67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU69" s="65" t="e">
-        <f>(SUM(BU41:BU67)-MIN(BU41:BU67)-MAX(BU41:BU67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BV69" s="72" t="e">
-        <f>(SUM(BV41:BV67)-MIN(BV41:BV67)-MAX(BV41:BV67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW69" s="65" t="e">
-        <f>(SUM(BW41:BW67)-MIN(BW41:BW67)-MAX(BW41:BW67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BX69" s="65" t="e">
-        <f>(SUM(BX41:BX67)-MIN(BX41:BX67)-MAX(BX41:BX67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY69" s="65" t="e">
-        <f>(SUM(BY41:BY67)-MIN(BY41:BY67)-MAX(BY41:BY67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ69" s="72" t="e">
-        <f>(SUM(BZ41:BZ67)-MIN(BZ41:BZ67)-MAX(BZ41:BZ67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA69" s="65" t="e">
-        <f>(SUM(CA41:CA67)-MIN(CA41:CA67)-MAX(CA41:CA67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CB69" s="65" t="e">
-        <f>(SUM(CB41:CB67)-MIN(CB41:CB67)-MAX(CB41:CB67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC69" s="65" t="e">
-        <f>(SUM(CC41:CC67)-MIN(CC41:CC67)-MAX(CC41:CC67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CD69" s="72" t="e">
-        <f>(SUM(CD41:CD67)-MIN(CD41:CD67)-MAX(CD41:CD67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE69" s="65" t="e">
-        <f>(SUM(CE41:CE67)-MIN(CE41:CE67)-MAX(CE41:CE67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF69" s="65" t="e">
-        <f>(SUM(CF41:CF67)-MIN(CF41:CF67)-MAX(CF41:CF67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG69" s="65" t="e">
-        <f>(SUM(CG41:CG67)-MIN(CG41:CG67)-MAX(CG41:CG67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH69" s="72" t="e">
-        <f>(SUM(CH41:CH67)-MIN(CH41:CH67)-MAX(CH41:CH67))/17</f>
+        <f t="shared" si="341"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI69" s="66"/>
@@ -19977,195 +20054,195 @@
       </c>
       <c r="AL70" s="72"/>
       <c r="AM70" s="65" t="e">
-        <f>MEDIAN(AM41:AM67)</f>
+        <f t="shared" ref="AM70:CH70" si="342">MEDIAN(AM41:AM67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN70" s="65" t="e">
-        <f>MEDIAN(AN41:AN67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO70" s="65" t="e">
-        <f>MEDIAN(AO41:AO67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP70" s="72" t="e">
-        <f>MEDIAN(AP41:AP67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ70" s="65" t="e">
-        <f>MEDIAN(AQ41:AQ67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR70" s="65" t="e">
-        <f>MEDIAN(AR41:AR67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS70" s="65" t="e">
-        <f>MEDIAN(AS41:AS67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT70" s="72" t="e">
-        <f>MEDIAN(AT41:AT67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU70" s="65" t="e">
-        <f>MEDIAN(AU41:AU67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV70" s="65" t="e">
-        <f>MEDIAN(AV41:AV67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW70" s="65" t="e">
-        <f>MEDIAN(AW41:AW67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX70" s="72" t="e">
-        <f>MEDIAN(AX41:AX67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY70" s="65" t="e">
-        <f>MEDIAN(AY41:AY67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ70" s="65" t="e">
-        <f>MEDIAN(AZ41:AZ67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA70" s="65" t="e">
-        <f>MEDIAN(BA41:BA67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB70" s="72" t="e">
-        <f>MEDIAN(BB41:BB67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC70" s="65" t="e">
-        <f>MEDIAN(BC41:BC67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD70" s="65" t="e">
-        <f>MEDIAN(BD41:BD67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE70" s="65" t="e">
-        <f>MEDIAN(BE41:BE67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF70" s="72" t="e">
-        <f>MEDIAN(BF41:BF67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG70" s="65" t="e">
-        <f>MEDIAN(BG41:BG67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH70" s="65" t="e">
-        <f>MEDIAN(BH41:BH67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI70" s="65" t="e">
-        <f>MEDIAN(BI41:BI67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ70" s="72" t="e">
-        <f>MEDIAN(BJ41:BJ67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK70" s="65" t="e">
-        <f>MEDIAN(BK41:BK67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL70" s="65" t="e">
-        <f>MEDIAN(BL41:BL67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM70" s="65" t="e">
-        <f>MEDIAN(BM41:BM67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN70" s="72" t="e">
-        <f>MEDIAN(BN41:BN67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO70" s="65" t="e">
-        <f>MEDIAN(BO41:BO67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP70" s="65" t="e">
-        <f>MEDIAN(BP41:BP67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ70" s="65" t="e">
-        <f>MEDIAN(BQ41:BQ67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BR70" s="72" t="e">
-        <f>MEDIAN(BR41:BR67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS70" s="65" t="e">
-        <f>MEDIAN(BS41:BS67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT70" s="65" t="e">
-        <f>MEDIAN(BT41:BT67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU70" s="65" t="e">
-        <f>MEDIAN(BU41:BU67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BV70" s="72" t="e">
-        <f>MEDIAN(BV41:BV67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW70" s="65" t="e">
-        <f>MEDIAN(BW41:BW67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BX70" s="65" t="e">
-        <f>MEDIAN(BX41:BX67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY70" s="65" t="e">
-        <f>MEDIAN(BY41:BY67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ70" s="72" t="e">
-        <f>MEDIAN(BZ41:BZ67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA70" s="65" t="e">
-        <f>MEDIAN(CA41:CA67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CB70" s="65" t="e">
-        <f>MEDIAN(CB41:CB67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC70" s="65" t="e">
-        <f>MEDIAN(CC41:CC67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CD70" s="72" t="e">
-        <f>MEDIAN(CD41:CD67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE70" s="65" t="e">
-        <f>MEDIAN(CE41:CE67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF70" s="65" t="e">
-        <f>MEDIAN(CF41:CF67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG70" s="65" t="e">
-        <f>MEDIAN(CG41:CG67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH70" s="72" t="e">
-        <f>MEDIAN(CH41:CH67)</f>
+        <f t="shared" si="342"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20466,195 +20543,195 @@
       </c>
       <c r="AL75" s="75"/>
       <c r="AM75" s="63" t="e">
-        <f>AM32-AM68</f>
+        <f t="shared" ref="AM75:CH75" si="343">AM32-AM68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN75" s="63" t="e">
-        <f>AN32-AN68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO75" s="63" t="e">
-        <f>AO32-AO68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP75" s="75" t="e">
-        <f>AP32-AP68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ75" s="63" t="e">
-        <f>AQ32-AQ68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR75" s="63" t="e">
-        <f>AR32-AR68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS75" s="63" t="e">
-        <f>AS32-AS68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT75" s="75" t="e">
-        <f>AT32-AT68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU75" s="63" t="e">
-        <f>AU32-AU68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV75" s="63" t="e">
-        <f>AV32-AV68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW75" s="63" t="e">
-        <f>AW32-AW68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX75" s="75" t="e">
-        <f>AX32-AX68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY75" s="63" t="e">
-        <f>AY32-AY68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ75" s="63" t="e">
-        <f>AZ32-AZ68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA75" s="63" t="e">
-        <f>BA32-BA68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB75" s="75" t="e">
-        <f>BB32-BB68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC75" s="63" t="e">
-        <f>BC32-BC68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD75" s="63" t="e">
-        <f>BD32-BD68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE75" s="63" t="e">
-        <f>BE32-BE68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF75" s="75" t="e">
-        <f>BF32-BF68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG75" s="63" t="e">
-        <f>BG32-BG68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH75" s="63" t="e">
-        <f>BH32-BH68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI75" s="63" t="e">
-        <f>BI32-BI68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ75" s="75" t="e">
-        <f>BJ32-BJ68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK75" s="63" t="e">
-        <f>BK32-BK68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL75" s="63" t="e">
-        <f>BL32-BL68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM75" s="63" t="e">
-        <f>BM32-BM68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN75" s="75" t="e">
-        <f>BN32-BN68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO75" s="63" t="e">
-        <f>BO32-BO68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP75" s="63" t="e">
-        <f>BP32-BP68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ75" s="63" t="e">
-        <f>BQ32-BQ68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BR75" s="75" t="e">
-        <f>BR32-BR68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS75" s="63" t="e">
-        <f>BS32-BS68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT75" s="63" t="e">
-        <f>BT32-BT68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU75" s="63" t="e">
-        <f>BU32-BU68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BV75" s="75" t="e">
-        <f>BV32-BV68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW75" s="63" t="e">
-        <f>BW32-BW68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BX75" s="63" t="e">
-        <f>BX32-BX68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY75" s="63" t="e">
-        <f>BY32-BY68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ75" s="75" t="e">
-        <f>BZ32-BZ68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA75" s="63" t="e">
-        <f>CA32-CA68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CB75" s="63" t="e">
-        <f>CB32-CB68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC75" s="63" t="e">
-        <f>CC32-CC68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CD75" s="75" t="e">
-        <f>CD32-CD68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE75" s="63" t="e">
-        <f>CE32-CE68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF75" s="63" t="e">
-        <f>CF32-CF68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG75" s="63" t="e">
-        <f>CG32-CG68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH75" s="75" t="e">
-        <f>CH32-CH68</f>
+        <f t="shared" si="343"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI75" s="28"/>
@@ -20673,195 +20750,195 @@
       </c>
       <c r="AL76" s="75"/>
       <c r="AM76" s="63" t="e">
-        <f>AM33-AM69</f>
+        <f t="shared" ref="AM76:CH76" si="344">AM33-AM69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN76" s="63" t="e">
-        <f>AN33-AN69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO76" s="63" t="e">
-        <f>AO33-AO69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP76" s="75" t="e">
-        <f>AP33-AP69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ76" s="63" t="e">
-        <f>AQ33-AQ69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR76" s="63" t="e">
-        <f>AR33-AR69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS76" s="63" t="e">
-        <f>AS33-AS69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT76" s="75" t="e">
-        <f>AT33-AT69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU76" s="63" t="e">
-        <f>AU33-AU69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV76" s="63" t="e">
-        <f>AV33-AV69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW76" s="63" t="e">
-        <f>AW33-AW69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX76" s="75" t="e">
-        <f>AX33-AX69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY76" s="63" t="e">
-        <f>AY33-AY69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ76" s="63" t="e">
-        <f>AZ33-AZ69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA76" s="63" t="e">
-        <f>BA33-BA69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB76" s="75" t="e">
-        <f>BB33-BB69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC76" s="63" t="e">
-        <f>BC33-BC69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD76" s="63" t="e">
-        <f>BD33-BD69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE76" s="63" t="e">
-        <f>BE33-BE69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF76" s="75" t="e">
-        <f>BF33-BF69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG76" s="63" t="e">
-        <f>BG33-BG69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH76" s="63" t="e">
-        <f>BH33-BH69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI76" s="63" t="e">
-        <f>BI33-BI69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ76" s="75" t="e">
-        <f>BJ33-BJ69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK76" s="63" t="e">
-        <f>BK33-BK69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL76" s="63" t="e">
-        <f>BL33-BL69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM76" s="63" t="e">
-        <f>BM33-BM69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN76" s="75" t="e">
-        <f>BN33-BN69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO76" s="63" t="e">
-        <f>BO33-BO69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP76" s="63" t="e">
-        <f>BP33-BP69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ76" s="63" t="e">
-        <f>BQ33-BQ69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BR76" s="75" t="e">
-        <f>BR33-BR69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS76" s="63" t="e">
-        <f>BS33-BS69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT76" s="63" t="e">
-        <f>BT33-BT69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU76" s="63" t="e">
-        <f>BU33-BU69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BV76" s="75" t="e">
-        <f>BV33-BV69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW76" s="63" t="e">
-        <f>BW33-BW69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BX76" s="63" t="e">
-        <f>BX33-BX69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY76" s="63" t="e">
-        <f>BY33-BY69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ76" s="75" t="e">
-        <f>BZ33-BZ69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA76" s="63" t="e">
-        <f>CA33-CA69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CB76" s="63" t="e">
-        <f>CB33-CB69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC76" s="63" t="e">
-        <f>CC33-CC69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CD76" s="75" t="e">
-        <f>CD33-CD69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE76" s="63" t="e">
-        <f>CE33-CE69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF76" s="63" t="e">
-        <f>CF33-CF69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG76" s="63" t="e">
-        <f>CG33-CG69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH76" s="75" t="e">
-        <f>CH33-CH69</f>
+        <f t="shared" si="344"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20879,195 +20956,195 @@
       </c>
       <c r="AL77" s="75"/>
       <c r="AM77" s="63" t="e">
-        <f>AM34-AM70</f>
+        <f t="shared" ref="AM77:CH77" si="345">AM34-AM70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN77" s="63" t="e">
-        <f>AN34-AN70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO77" s="63" t="e">
-        <f>AO34-AO70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP77" s="75" t="e">
-        <f>AP34-AP70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ77" s="63" t="e">
-        <f>AQ34-AQ70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR77" s="63" t="e">
-        <f>AR34-AR70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS77" s="63" t="e">
-        <f>AS34-AS70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT77" s="75" t="e">
-        <f>AT34-AT70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU77" s="63" t="e">
-        <f>AU34-AU70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV77" s="63" t="e">
-        <f>AV34-AV70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW77" s="63" t="e">
-        <f>AW34-AW70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX77" s="75" t="e">
-        <f>AX34-AX70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY77" s="63" t="e">
-        <f>AY34-AY70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ77" s="63" t="e">
-        <f>AZ34-AZ70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA77" s="63" t="e">
-        <f>BA34-BA70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB77" s="75" t="e">
-        <f>BB34-BB70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC77" s="63" t="e">
-        <f>BC34-BC70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD77" s="63" t="e">
-        <f>BD34-BD70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE77" s="63" t="e">
-        <f>BE34-BE70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF77" s="75" t="e">
-        <f>BF34-BF70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG77" s="63" t="e">
-        <f>BG34-BG70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH77" s="63" t="e">
-        <f>BH34-BH70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI77" s="63" t="e">
-        <f>BI34-BI70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ77" s="75" t="e">
-        <f>BJ34-BJ70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK77" s="63" t="e">
-        <f>BK34-BK70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL77" s="63" t="e">
-        <f>BL34-BL70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM77" s="63" t="e">
-        <f>BM34-BM70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN77" s="75" t="e">
-        <f>BN34-BN70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO77" s="63" t="e">
-        <f>BO34-BO70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP77" s="63" t="e">
-        <f>BP34-BP70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ77" s="63" t="e">
-        <f>BQ34-BQ70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BR77" s="75" t="e">
-        <f>BR34-BR70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS77" s="63" t="e">
-        <f>BS34-BS70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT77" s="63" t="e">
-        <f>BT34-BT70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BU77" s="63" t="e">
-        <f>BU34-BU70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BV77" s="75" t="e">
-        <f>BV34-BV70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW77" s="63" t="e">
-        <f>BW34-BW70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BX77" s="63" t="e">
-        <f>BX34-BX70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY77" s="63" t="e">
-        <f>BY34-BY70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ77" s="75" t="e">
-        <f>BZ34-BZ70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA77" s="63" t="e">
-        <f>CA34-CA70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CB77" s="63" t="e">
-        <f>CB34-CB70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC77" s="63" t="e">
-        <f>CC34-CC70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CD77" s="75" t="e">
-        <f>CD34-CD70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE77" s="63" t="e">
-        <f>CE34-CE70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CF77" s="63" t="e">
-        <f>CF34-CF70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CG77" s="63" t="e">
-        <f>CG34-CG70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH77" s="75" t="e">
-        <f>CH34-CH70</f>
+        <f t="shared" si="345"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21326,6 +21403,44 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="W2:AL2"/>
+    <mergeCell ref="G2:U2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="G38:U38"/>
+    <mergeCell ref="AM38:BB38"/>
+    <mergeCell ref="BC38:BR38"/>
+    <mergeCell ref="BS38:CH38"/>
+    <mergeCell ref="CA3:CD3"/>
+    <mergeCell ref="CE3:CH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="W38:AL38"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="AQ39:AT39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="BK39:BN39"/>
+    <mergeCell ref="BG39:BJ39"/>
+    <mergeCell ref="BC39:BF39"/>
+    <mergeCell ref="AY39:BB39"/>
+    <mergeCell ref="AU39:AX39"/>
+    <mergeCell ref="BS39:BV39"/>
+    <mergeCell ref="BW39:BZ39"/>
+    <mergeCell ref="CA39:CD39"/>
+    <mergeCell ref="CE39:CH39"/>
+    <mergeCell ref="BO39:BR39"/>
     <mergeCell ref="BS2:CH2"/>
     <mergeCell ref="BC2:BR2"/>
     <mergeCell ref="AM2:BB2"/>
@@ -21338,44 +21453,6 @@
     <mergeCell ref="BO3:BR3"/>
     <mergeCell ref="BS3:BV3"/>
     <mergeCell ref="BW3:BZ3"/>
-    <mergeCell ref="BS39:BV39"/>
-    <mergeCell ref="BW39:BZ39"/>
-    <mergeCell ref="CA39:CD39"/>
-    <mergeCell ref="CE39:CH39"/>
-    <mergeCell ref="BO39:BR39"/>
-    <mergeCell ref="BK39:BN39"/>
-    <mergeCell ref="BG39:BJ39"/>
-    <mergeCell ref="BC39:BF39"/>
-    <mergeCell ref="AY39:BB39"/>
-    <mergeCell ref="AU39:AX39"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="AQ39:AT39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="G38:U38"/>
-    <mergeCell ref="AM38:BB38"/>
-    <mergeCell ref="BC38:BR38"/>
-    <mergeCell ref="BS38:CH38"/>
-    <mergeCell ref="CA3:CD3"/>
-    <mergeCell ref="CE3:CH3"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="W38:AL38"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="W2:AL2"/>
-    <mergeCell ref="G2:U2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="CJ10" r:id="rId1"/>

--- a/results/results_tool_08.09.xlsx
+++ b/results/results_tool_08.09.xlsx
@@ -15,11 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$4:$A$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="133">
   <si>
     <t>Project</t>
   </si>
@@ -415,6 +416,9 @@
   </si>
   <si>
     <t>bridge</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9008,6 +9012,12 @@
       <c r="B27" s="84" t="s">
         <v>131</v>
       </c>
+      <c r="C27" s="84">
+        <v>1973</v>
+      </c>
+      <c r="D27" s="84">
+        <v>3434</v>
+      </c>
       <c r="E27" s="85"/>
       <c r="F27" s="89"/>
       <c r="G27" s="87"/>
@@ -9242,225 +9252,305 @@
       <c r="B28" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="86"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="86"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="86"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="86"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="90"/>
-      <c r="AM28" s="87" t="e">
+      <c r="C28" s="84">
+        <v>1318</v>
+      </c>
+      <c r="D28" s="84">
+        <v>1853</v>
+      </c>
+      <c r="E28" s="85">
+        <v>1155</v>
+      </c>
+      <c r="F28" s="89">
+        <v>414</v>
+      </c>
+      <c r="G28" s="87">
+        <v>184</v>
+      </c>
+      <c r="H28" s="84">
+        <v>96</v>
+      </c>
+      <c r="I28" s="87">
+        <v>1</v>
+      </c>
+      <c r="J28" s="86">
+        <v>0</v>
+      </c>
+      <c r="K28" s="84">
+        <v>926</v>
+      </c>
+      <c r="L28" s="84">
+        <v>563</v>
+      </c>
+      <c r="M28" s="87">
+        <v>48</v>
+      </c>
+      <c r="N28" s="86">
+        <v>20</v>
+      </c>
+      <c r="O28" s="84">
+        <v>2384</v>
+      </c>
+      <c r="P28" s="84">
+        <v>1609</v>
+      </c>
+      <c r="Q28" s="87">
+        <v>110</v>
+      </c>
+      <c r="R28" s="86">
+        <v>50</v>
+      </c>
+      <c r="S28" s="84">
+        <v>39333</v>
+      </c>
+      <c r="T28" s="87">
+        <v>11541</v>
+      </c>
+      <c r="U28" s="87">
+        <v>5737</v>
+      </c>
+      <c r="V28" s="87">
+        <v>946</v>
+      </c>
+      <c r="W28" s="88">
+        <v>0</v>
+      </c>
+      <c r="X28" s="87">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="87">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="87">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="87">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="87">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="86">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="87">
+        <v>51</v>
+      </c>
+      <c r="AF28" s="87">
+        <v>46</v>
+      </c>
+      <c r="AG28" s="87">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="86">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="87">
+        <v>196</v>
+      </c>
+      <c r="AJ28" s="87">
+        <v>187</v>
+      </c>
+      <c r="AK28" s="87">
+        <v>114</v>
+      </c>
+      <c r="AL28" s="90">
+        <v>25</v>
+      </c>
+      <c r="AM28" s="87">
         <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN28" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="84">
         <f t="shared" si="97"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO28" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="87">
         <f t="shared" si="98"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP28" s="90" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="90">
         <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ28" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="84">
         <f t="shared" si="100"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR28" s="84" t="e">
+        <v>0.72463768115942029</v>
+      </c>
+      <c r="AR28" s="84">
         <f t="shared" si="101"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS28" s="87" t="e">
+        <v>0.24154589371980675</v>
+      </c>
+      <c r="AS28" s="87">
         <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT28" s="90" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="90">
         <f t="shared" si="103"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU28" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="84">
         <f t="shared" si="104"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV28" s="84" t="e">
+        <v>12.318840579710145</v>
+      </c>
+      <c r="AV28" s="84">
         <f t="shared" si="105"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW28" s="87" t="e">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="AW28" s="87">
         <f t="shared" si="106"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX28" s="90" t="e">
+        <v>0.24154589371980675</v>
+      </c>
+      <c r="AX28" s="90">
         <f t="shared" si="107"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY28" s="84" t="e">
+        <v>0.24154589371980675</v>
+      </c>
+      <c r="AY28" s="84">
         <f t="shared" si="108"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ28" s="84" t="e">
+        <v>47.342995169082123</v>
+      </c>
+      <c r="AZ28" s="84">
         <f t="shared" si="109"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA28" s="87" t="e">
+        <v>45.169082125603865</v>
+      </c>
+      <c r="BA28" s="87">
         <f t="shared" si="110"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB28" s="90" t="e">
+        <v>27.536231884057973</v>
+      </c>
+      <c r="BB28" s="90">
         <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC28" s="87" t="e">
+        <v>6.0386473429951693</v>
+      </c>
+      <c r="BC28" s="87">
         <f t="shared" si="112"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD28" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="87">
         <f t="shared" si="113"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE28" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="87">
         <f t="shared" si="114"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="90" t="e">
         <f t="shared" si="115"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG28" s="87" t="e">
+      <c r="BG28" s="87">
         <f t="shared" si="116"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH28" s="87" t="e">
+        <v>0.32397408207343414</v>
+      </c>
+      <c r="BH28" s="87">
         <f t="shared" si="117"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI28" s="87" t="e">
+        <v>0.17761989342806395</v>
+      </c>
+      <c r="BI28" s="87">
         <f t="shared" si="118"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ28" s="90" t="e">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="90">
         <f t="shared" si="119"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK28" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="87">
         <f t="shared" si="120"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL28" s="87" t="e">
+        <v>2.1392617449664431</v>
+      </c>
+      <c r="BL28" s="87">
         <f t="shared" si="121"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BM28" s="87" t="e">
+        <v>2.8589185829707895</v>
+      </c>
+      <c r="BM28" s="87">
         <f t="shared" si="122"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN28" s="90" t="e">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="BN28" s="90">
         <f t="shared" si="123"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO28" s="87" t="e">
+        <v>2</v>
+      </c>
+      <c r="BO28" s="87">
         <f t="shared" si="124"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP28" s="87" t="e">
+        <v>0.49830930770599752</v>
+      </c>
+      <c r="BP28" s="87">
         <f t="shared" si="125"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ28" s="87" t="e">
+        <v>1.6203101984230137</v>
+      </c>
+      <c r="BQ28" s="87">
         <f t="shared" si="126"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BR28" s="90" t="e">
+        <v>1.9871012724420429</v>
+      </c>
+      <c r="BR28" s="90">
         <f t="shared" si="127"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BS28" s="87" t="e">
+        <v>2.6427061310782243</v>
+      </c>
+      <c r="BS28" s="87">
         <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BT28" s="87" t="e">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="BT28" s="87">
         <f t="shared" si="129"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BU28" s="87" t="e">
+        <v>0.2318840579710145</v>
+      </c>
+      <c r="BU28" s="87">
         <f t="shared" si="130"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BV28" s="90" t="e">
+        <v>2.4154589371980675E-3</v>
+      </c>
+      <c r="BV28" s="90">
         <f t="shared" si="131"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BW28" s="87" t="e">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="87">
         <f t="shared" si="132"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BX28" s="87" t="e">
+        <v>2.2367149758454108</v>
+      </c>
+      <c r="BX28" s="87">
         <f t="shared" si="133"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BY28" s="87" t="e">
+        <v>1.3599033816425121</v>
+      </c>
+      <c r="BY28" s="87">
         <f t="shared" si="134"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BZ28" s="90" t="e">
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="BZ28" s="90">
         <f t="shared" si="135"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CA28" s="87" t="e">
+        <v>4.8309178743961352E-2</v>
+      </c>
+      <c r="CA28" s="87">
         <f t="shared" si="136"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB28" s="87" t="e">
+        <v>5.7584541062801931</v>
+      </c>
+      <c r="CB28" s="87">
         <f t="shared" si="137"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CC28" s="87" t="e">
+        <v>3.8864734299516908</v>
+      </c>
+      <c r="CC28" s="87">
         <f t="shared" si="138"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CD28" s="90" t="e">
+        <v>0.26570048309178745</v>
+      </c>
+      <c r="CD28" s="90">
         <f t="shared" si="139"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CE28" s="87" t="e">
+        <v>0.12077294685990338</v>
+      </c>
+      <c r="CE28" s="87">
         <f t="shared" si="140"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CF28" s="87" t="e">
+        <v>95.007246376811594</v>
+      </c>
+      <c r="CF28" s="87">
         <f t="shared" si="141"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CG28" s="87" t="e">
+        <v>27.876811594202898</v>
+      </c>
+      <c r="CG28" s="87">
         <f t="shared" si="142"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH28" s="90" t="e">
+        <v>13.857487922705314</v>
+      </c>
+      <c r="CH28" s="90">
         <f t="shared" si="143"/>
-        <v>#DIV/0!</v>
+        <v>2.2850241545893719</v>
       </c>
       <c r="CI28" s="5" t="s">
         <v>114</v>
@@ -10661,7 +10751,9 @@
     </row>
     <row r="33" spans="1:100" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
-      <c r="F33" s="45"/>
+      <c r="F33" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="W33" s="37"/>
       <c r="X33" s="28"/>
